--- a/emoProgress.xlsx
+++ b/emoProgress.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20000" yWindow="1040" windowWidth="19140" windowHeight="18340" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1520" yWindow="0" windowWidth="19140" windowHeight="18340" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sally" sheetId="1" r:id="rId1"/>
@@ -170,8 +170,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -270,7 +310,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="125">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -313,6 +353,26 @@
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -355,6 +415,26 @@
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3002,8 +3082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3058,13 +3138,27 @@
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="C2" s="5">
+        <v>8.2671957671999995E-4</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.99917328042300002</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>3.8580246913599999E-4</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.999614197531</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
       <c r="J2" s="4" t="s">
         <v>26</v>
       </c>
@@ -3076,13 +3170,27 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="C3" s="5">
+        <v>8.2671957671999995E-4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.99917328042300002</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3.8580246913599999E-4</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.999614197531</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10">
@@ -3092,13 +3200,27 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="C4" s="5">
+        <v>2.0998677248699998E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.97900132275100005</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2.0447530864200002E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.97955246913600003</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.97993052875300002</v>
+      </c>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
@@ -3108,13 +3230,27 @@
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="3"/>
+      <c r="C5" s="5">
+        <v>8.2671957671999995E-4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.99917328042300002</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3.8580246913599999E-4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.999614197531</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
@@ -3136,13 +3272,27 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="5">
+        <v>7.4900793650800004E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.925099206349</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.63007159904499999</v>
+      </c>
+      <c r="F7" s="5">
+        <v>7.3302469135800005E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.92669753086399997</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.62179487179500004</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.94622331691299999</v>
+      </c>
       <c r="J7" s="4" t="s">
         <v>26</v>
       </c>
@@ -3154,13 +3304,27 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="C8" s="5">
+        <v>6.9279100529099996E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.93072089947100001</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>6.0185185185200003E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>6.0185185185200003E-2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10">
@@ -3170,13 +3334,27 @@
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="C9" s="5">
+        <v>0.19626322751299999</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.80373677248700004</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.65871121718400005</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.18518518518499999</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.81481481481499995</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.634615384615</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.82635467980300004</v>
+      </c>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10">
@@ -3186,13 +3364,27 @@
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="3"/>
+      <c r="C10" s="5">
+        <v>6.9444444444399997E-2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.930555555556</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>6.0570987654300003E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.93942901234599996</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.99958949096899996</v>
+      </c>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10">
@@ -3214,13 +3406,27 @@
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="C12" s="5">
+        <v>0.30423280423299998</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.69576719576699997</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.49166132136000001</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.29591049382700002</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.70408950617300003</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.51237809452399996</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.90706910246200001</v>
+      </c>
       <c r="J12" s="4" t="s">
         <v>26</v>
       </c>
@@ -3232,13 +3438,27 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="5">
+        <v>0.28273809523799998</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.71726190476200002</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.64464400256599996</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.28125</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.71875</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.64216054013500001</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.79984114376500004</v>
+      </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10">
@@ -3248,13 +3468,27 @@
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="C14" s="5">
+        <v>0.40839947089899997</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.59160052910100003</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.91019884541399998</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.41010802469099999</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.58989197530899995</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.90322580645200001</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.258141382049</v>
+      </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10">
@@ -3264,13 +3498,27 @@
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="3"/>
+      <c r="C15" s="5">
+        <v>0.30919312169300001</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.69080687830700005</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.48107761385499997</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.31404320987700002</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.68595679012300004</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.47936984246100001</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.90468625893599997</v>
+      </c>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10">
@@ -3292,13 +3540,27 @@
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="C17" s="5">
+        <v>0.31779100529100002</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.68220899470899998</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.52817224003700003</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.31828703703700001</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.68171296296299999</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.52134146341499998</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.77985074626899997</v>
+      </c>
       <c r="J17" s="4" t="s">
         <v>26</v>
       </c>
@@ -3310,13 +3572,27 @@
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="C18" s="5">
+        <v>0.27926587301599998</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.72073412698399997</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.42693540998599999</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.28896604938300002</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.71103395061700003</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.41768292682899999</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.89054726368199999</v>
+      </c>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10">
@@ -3326,13 +3602,27 @@
       <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="5">
+        <v>0.39500661375700002</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.60499338624300003</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.957398076042</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.36188271604900002</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.63811728395099998</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.96036585365899996</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.44092039800999999</v>
+      </c>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10">
@@ -3342,13 +3632,27 @@
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="3"/>
+      <c r="C20" s="5">
+        <v>0.34904100529100002</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.65095899470899998</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.92212551534599996</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.33333333333300003</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.66666666666700003</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.92581300813</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.50808457711400001</v>
+      </c>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10">
@@ -3370,13 +3674,27 @@
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="C22" s="5">
+        <v>0.12814153439199999</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.87185846560799996</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.125385802469</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.874614197531</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.871541501976</v>
+      </c>
       <c r="J22" s="4" t="s">
         <v>26</v>
       </c>
@@ -3388,13 +3706,27 @@
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="C23" s="5">
+        <v>2.5628306878299999E-2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.974371693122</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2.39197530864E-2</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.97608024691399997</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1</v>
+      </c>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10">
@@ -3404,13 +3736,27 @@
       <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="C24" s="5">
+        <v>2.5628306878299999E-2</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.974371693122</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2.39197530864E-2</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.97608024691399997</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10">
@@ -3420,13 +3766,27 @@
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="3"/>
+      <c r="C25" s="5">
+        <v>2.89351851852E-2</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.97106481481499995</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.43870967741900002</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2.39197530864E-2</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.97608024691399997</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.483870967742</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.98814229248999996</v>
+      </c>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10">
@@ -3448,13 +3808,27 @@
       <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="C27" s="5">
+        <v>0.212632275132</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.787367724868</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.28167877320399998</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.212191358025</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.787808641975</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.27938342967200003</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.91509889049699999</v>
+      </c>
       <c r="J27" s="4" t="s">
         <v>26</v>
       </c>
@@ -3466,13 +3840,27 @@
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="C28" s="5">
+        <v>0.136243386243</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.86375661375699997</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.68280871670700005</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.13001543209899999</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.86998456790099998</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.66859344893999995</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.92040520984100005</v>
+      </c>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10">
@@ -3482,13 +3870,27 @@
       <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="C29" s="5">
+        <v>0.21081349206300001</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.78918650793699996</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.627118644068</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.20717592592600001</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.79282407407400002</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.59730250481699998</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0.84177520501699998</v>
+      </c>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10">
@@ -3498,13 +3900,27 @@
       <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="3"/>
+      <c r="C30" s="5">
+        <v>0.195271164021</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.80472883597900002</v>
+      </c>
+      <c r="E30" s="5">
+        <v>4.6811945117000001E-2</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.19135802469099999</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.80864197530899995</v>
+      </c>
+      <c r="H30" s="5">
+        <v>4.4315992292900001E-2</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10">
@@ -3526,13 +3942,27 @@
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="C32" s="5">
+        <v>2.1494708994699999E-3</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.99785052910100003</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.97965116279099995</v>
+      </c>
+      <c r="F32" s="5">
+        <v>3.4722222222199998E-3</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.99652777777799995</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.96153846153800004</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.99837530463000002</v>
+      </c>
       <c r="J32" s="4" t="s">
         <v>26</v>
       </c>
@@ -3544,13 +3974,27 @@
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="C33" s="5">
+        <v>3.8029100529099998E-3</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.99619708994699996</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.97674418604699997</v>
+      </c>
+      <c r="F33" s="5">
+        <v>5.0154320987700002E-3</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.99498456790099998</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.95384615384600002</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0.99715678310300004</v>
+      </c>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10">
@@ -3560,13 +4004,27 @@
       <c r="B34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="C34" s="5">
+        <v>0.99715678310300004</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.943783068783</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.98255813953500004</v>
+      </c>
+      <c r="F34" s="5">
+        <v>4.78395061728E-2</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.95216049382699997</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.96153846153800004</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0.95166531275400001</v>
+      </c>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10">
@@ -3576,13 +4034,27 @@
       <c r="B35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="3"/>
+      <c r="C35" s="5">
+        <v>4.2989417989399998E-3</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.99570105820099997</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.98255813953500004</v>
+      </c>
+      <c r="F35" s="5">
+        <v>5.0154320987700002E-3</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.99498456790099998</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0.96153846153800004</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0.99675060926100001</v>
+      </c>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10">
@@ -3604,13 +4076,27 @@
       <c r="B37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="C37" s="5">
+        <v>1.4880952381E-3</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.99851190476200002</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1.1574074074100001E-3</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0.99884259259300001</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1</v>
+      </c>
       <c r="J37" s="4" t="s">
         <v>26</v>
       </c>
@@ -3622,13 +4108,27 @@
       <c r="B38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
+      <c r="C38" s="5">
+        <v>1.4880952381E-3</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.99851190476200002</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1.1574074074100001E-3</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.99884259259300001</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1</v>
+      </c>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10">
@@ -3638,13 +4138,6 @@
       <c r="B39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10">
@@ -3654,13 +4147,27 @@
       <c r="B40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="3"/>
+      <c r="C40" s="5">
+        <v>1.4880952381E-3</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0.99851190476200002</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1.1574074074100001E-3</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.99884259259300001</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <v>1</v>
+      </c>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10">
@@ -3683,7 +4190,6 @@
         <v>8</v>
       </c>
       <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
